--- a/biology/Médecine/Déficits_sélectifs_en_immunoglobulines/Déficits_sélectifs_en_immunoglobulines.xlsx
+++ b/biology/Médecine/Déficits_sélectifs_en_immunoglobulines/Déficits_sélectifs_en_immunoglobulines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9ficits_s%C3%A9lectifs_en_immunoglobulines</t>
+          <t>Déficits_sélectifs_en_immunoglobulines</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le déficit immunitaire lié à des anomalies des immunoglobulines (Immunité humorale) est soit complet et sévère (agammaglobulinémie liée au sexe maladie de Bruton), soit global mais incomplet et variable (Hypogammaglobulinémie commune d'expression variable).
 Ce déficit dans la synthèse des immunoglobulines peut aussi être sélectif, ne concernant qu'une classe.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9ficits_s%C3%A9lectifs_en_immunoglobulines</t>
+          <t>Déficits_sélectifs_en_immunoglobulines</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Le déficit isolé en IgA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Code CIM-10 D80.2
 C'est le plus fréquent de ces déficits. Il est le plus souvent héréditaire, lié sur le plan familial à des cas de déficit d'expression variable. 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9ficits_s%C3%A9lectifs_en_immunoglobulines</t>
+          <t>Déficits_sélectifs_en_immunoglobulines</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Les autres déficits sélectifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Déficit en IgG et IgA avec taux élevé d'IgM. Code CIM-10 D80.5
 Déficit sélectif en IgM. Code CIM-10 D80.4
